--- a/Expr1d/Expr_4.xlsx
+++ b/Expr1d/Expr_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr1d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A35969-0D55-D74C-9C10-8193A6E36772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B73202-5AB3-CE44-B2B2-DF80092F4CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1620" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Model</t>
   </si>
@@ -117,6 +117,9 @@
   <si>
     <t>Result/Expr1_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fig_Record_Interve</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +165,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +232,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -537,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -548,7 +561,7 @@
     <col min="11" max="11" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +601,11 @@
       <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -629,8 +645,11 @@
       <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="N2" s="7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="M3" s="6"/>
     </row>
   </sheetData>
